--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1015.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1015.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18751906762002</v>
+        <v>1.542896509170532</v>
       </c>
       <c r="B1">
-        <v>3.255223123434039</v>
+        <v>2.185683488845825</v>
       </c>
       <c r="C1">
-        <v>3.840321507309917</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.147041995029189</v>
+        <v>1.363738656044006</v>
       </c>
       <c r="E1">
-        <v>1.022373715033667</v>
+        <v>0.6506624221801758</v>
       </c>
     </row>
   </sheetData>
